--- a/Projects/TestNGAPITesting-master/src/test/resources/polish_Masters_Excel.xlsx
+++ b/Projects/TestNGAPITesting-master/src/test/resources/polish_Masters_Excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>JAPAN AUCTION MASTERS</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>GD20250327092856</t>
+  </si>
+  <si>
+    <t>GD20250418091145</t>
+  </si>
+  <si>
+    <t>GD20250418091933</t>
   </si>
 </sst>
 </file>
@@ -475,7 +481,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
